--- a/04_Model_Saved/NN_full_v3_BO_test_2/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_ML.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_test_2/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_ML.xlsx
@@ -505,16 +505,16 @@
         <v>14.31699359657089</v>
       </c>
       <c r="G2" t="n">
-        <v>384.8321228027344</v>
+        <v>427.5726013183594</v>
       </c>
       <c r="H2" t="n">
-        <v>109.807014465332</v>
+        <v>101.6632614135742</v>
       </c>
       <c r="I2" t="n">
-        <v>555.0030517578125</v>
+        <v>700.3772583007812</v>
       </c>
       <c r="J2" t="n">
-        <v>204.5878601074219</v>
+        <v>136.4154052734375</v>
       </c>
     </row>
     <row r="3">
@@ -537,16 +537,16 @@
         <v>15.27891067420843</v>
       </c>
       <c r="G3" t="n">
-        <v>437.6977233886719</v>
+        <v>471.5885314941406</v>
       </c>
       <c r="H3" t="n">
-        <v>113.394645690918</v>
+        <v>102.3181610107422</v>
       </c>
       <c r="I3" t="n">
-        <v>597.178955078125</v>
+        <v>821.0143432617188</v>
       </c>
       <c r="J3" t="n">
-        <v>217.8141479492188</v>
+        <v>144.1734313964844</v>
       </c>
     </row>
     <row r="4">
@@ -569,16 +569,16 @@
         <v>15.85974020072816</v>
       </c>
       <c r="G4" t="n">
-        <v>494.822509765625</v>
+        <v>515.1472778320312</v>
       </c>
       <c r="H4" t="n">
-        <v>119.819221496582</v>
+        <v>87.39574432373047</v>
       </c>
       <c r="I4" t="n">
-        <v>620.3994750976562</v>
+        <v>878.2327270507812</v>
       </c>
       <c r="J4" t="n">
-        <v>208.3642730712891</v>
+        <v>134.7408294677734</v>
       </c>
     </row>
     <row r="5">
@@ -601,16 +601,16 @@
         <v>16.6254486072678</v>
       </c>
       <c r="G5" t="n">
-        <v>563.1377563476562</v>
+        <v>561.2948608398438</v>
       </c>
       <c r="H5" t="n">
-        <v>124.8458633422852</v>
+        <v>68.94521331787109</v>
       </c>
       <c r="I5" t="n">
-        <v>637.7514038085938</v>
+        <v>897.1285400390625</v>
       </c>
       <c r="J5" t="n">
-        <v>207.3436126708984</v>
+        <v>137.9449615478516</v>
       </c>
     </row>
     <row r="6">
@@ -633,16 +633,16 @@
         <v>16.72168606967666</v>
       </c>
       <c r="G6" t="n">
-        <v>626.1903686523438</v>
+        <v>616.6004638671875</v>
       </c>
       <c r="H6" t="n">
-        <v>123.5026931762695</v>
+        <v>52.2601318359375</v>
       </c>
       <c r="I6" t="n">
-        <v>655.001953125</v>
+        <v>868.1939697265625</v>
       </c>
       <c r="J6" t="n">
-        <v>205.6180572509766</v>
+        <v>146.6624145507812</v>
       </c>
     </row>
     <row r="7">
@@ -665,16 +665,16 @@
         <v>17.58023045110392</v>
       </c>
       <c r="G7" t="n">
-        <v>318.1005859375</v>
+        <v>360.1020812988281</v>
       </c>
       <c r="H7" t="n">
-        <v>101.1359100341797</v>
+        <v>60.87845230102539</v>
       </c>
       <c r="I7" t="n">
-        <v>481.2044372558594</v>
+        <v>671.4111328125</v>
       </c>
       <c r="J7" t="n">
-        <v>214.8707580566406</v>
+        <v>91.88079071044922</v>
       </c>
     </row>
     <row r="8">
@@ -697,16 +697,16 @@
         <v>18.57818076528054</v>
       </c>
       <c r="G8" t="n">
-        <v>341.6511840820312</v>
+        <v>369.4707946777344</v>
       </c>
       <c r="H8" t="n">
-        <v>98.45962524414062</v>
+        <v>70.14179229736328</v>
       </c>
       <c r="I8" t="n">
-        <v>518.5503540039062</v>
+        <v>757.8662719726562</v>
       </c>
       <c r="J8" t="n">
-        <v>204.0298767089844</v>
+        <v>112.0923538208008</v>
       </c>
     </row>
     <row r="9">
@@ -729,16 +729,16 @@
         <v>19.60838259075554</v>
       </c>
       <c r="G9" t="n">
-        <v>405.0652770996094</v>
+        <v>416.671630859375</v>
       </c>
       <c r="H9" t="n">
-        <v>109.3327484130859</v>
+        <v>85.68851470947266</v>
       </c>
       <c r="I9" t="n">
-        <v>568.9104614257812</v>
+        <v>871.0315551757812</v>
       </c>
       <c r="J9" t="n">
-        <v>205.6766204833984</v>
+        <v>121.5286712646484</v>
       </c>
     </row>
     <row r="10">
@@ -761,16 +761,16 @@
         <v>20.10500298210745</v>
       </c>
       <c r="G10" t="n">
-        <v>459.9251708984375</v>
+        <v>462.7008361816406</v>
       </c>
       <c r="H10" t="n">
-        <v>115.1603012084961</v>
+        <v>85.59543609619141</v>
       </c>
       <c r="I10" t="n">
-        <v>591.2173461914062</v>
+        <v>911.8716430664062</v>
       </c>
       <c r="J10" t="n">
-        <v>195.6241607666016</v>
+        <v>111.3318405151367</v>
       </c>
     </row>
     <row r="11">
@@ -793,16 +793,16 @@
         <v>20.82282672295324</v>
       </c>
       <c r="G11" t="n">
-        <v>542.548095703125</v>
+        <v>531.1591796875</v>
       </c>
       <c r="H11" t="n">
-        <v>119.2970581054688</v>
+        <v>72.92875671386719</v>
       </c>
       <c r="I11" t="n">
-        <v>624.7867431640625</v>
+        <v>913.1912231445312</v>
       </c>
       <c r="J11" t="n">
-        <v>205.8466339111328</v>
+        <v>108.8313446044922</v>
       </c>
     </row>
     <row r="12">
@@ -825,16 +825,16 @@
         <v>21.05931589769223</v>
       </c>
       <c r="G12" t="n">
-        <v>613.5231323242188</v>
+        <v>599.81396484375</v>
       </c>
       <c r="H12" t="n">
-        <v>121.3076400756836</v>
+        <v>59.141357421875</v>
       </c>
       <c r="I12" t="n">
-        <v>614.1788940429688</v>
+        <v>886.7739868164062</v>
       </c>
       <c r="J12" t="n">
-        <v>205.5433349609375</v>
+        <v>111.5495300292969</v>
       </c>
     </row>
     <row r="13">
@@ -857,16 +857,16 @@
         <v>21.38449445236935</v>
       </c>
       <c r="G13" t="n">
-        <v>684.1528930664062</v>
+        <v>659.5750732421875</v>
       </c>
       <c r="H13" t="n">
-        <v>115.6976470947266</v>
+        <v>52.67971801757812</v>
       </c>
       <c r="I13" t="n">
-        <v>597.4811401367188</v>
+        <v>846.9371337890625</v>
       </c>
       <c r="J13" t="n">
-        <v>216.8052978515625</v>
+        <v>131.8701782226562</v>
       </c>
     </row>
     <row r="14">
@@ -889,16 +889,16 @@
         <v>19.79697020692051</v>
       </c>
       <c r="G14" t="n">
-        <v>277.0700073242188</v>
+        <v>367.3038024902344</v>
       </c>
       <c r="H14" t="n">
-        <v>95.15103912353516</v>
+        <v>62.10454177856445</v>
       </c>
       <c r="I14" t="n">
-        <v>399.4088745117188</v>
+        <v>408.7305297851562</v>
       </c>
       <c r="J14" t="n">
-        <v>229.9661865234375</v>
+        <v>68.743896484375</v>
       </c>
     </row>
     <row r="15">
@@ -921,16 +921,16 @@
         <v>21.48203443327129</v>
       </c>
       <c r="G15" t="n">
-        <v>295.2742919921875</v>
+        <v>355.7893981933594</v>
       </c>
       <c r="H15" t="n">
-        <v>94.44950103759766</v>
+        <v>56.88115692138672</v>
       </c>
       <c r="I15" t="n">
-        <v>445.3230590820312</v>
+        <v>578.850341796875</v>
       </c>
       <c r="J15" t="n">
-        <v>211.4089660644531</v>
+        <v>84.01837158203125</v>
       </c>
     </row>
     <row r="16">
@@ -953,16 +953,16 @@
         <v>22.47631622738632</v>
       </c>
       <c r="G16" t="n">
-        <v>353.576904296875</v>
+        <v>357.9798583984375</v>
       </c>
       <c r="H16" t="n">
-        <v>105.0309219360352</v>
+        <v>51.70781707763672</v>
       </c>
       <c r="I16" t="n">
-        <v>498.4291076660156</v>
+        <v>822.8760986328125</v>
       </c>
       <c r="J16" t="n">
-        <v>196.0115051269531</v>
+        <v>97.96371459960938</v>
       </c>
     </row>
     <row r="17">
@@ -985,16 +985,16 @@
         <v>24.35763244318183</v>
       </c>
       <c r="G17" t="n">
-        <v>365.905517578125</v>
+        <v>362.7347412109375</v>
       </c>
       <c r="H17" t="n">
-        <v>101.8051986694336</v>
+        <v>57.70804214477539</v>
       </c>
       <c r="I17" t="n">
-        <v>512.6327514648438</v>
+        <v>835.8390502929688</v>
       </c>
       <c r="J17" t="n">
-        <v>189.6003265380859</v>
+        <v>94.53799438476562</v>
       </c>
     </row>
     <row r="18">
@@ -1017,16 +1017,16 @@
         <v>25.62064236797445</v>
       </c>
       <c r="G18" t="n">
-        <v>431.4527587890625</v>
+        <v>419.6321105957031</v>
       </c>
       <c r="H18" t="n">
-        <v>107.1333465576172</v>
+        <v>69.83693695068359</v>
       </c>
       <c r="I18" t="n">
-        <v>564.9149780273438</v>
+        <v>918.5054931640625</v>
       </c>
       <c r="J18" t="n">
-        <v>181.5088195800781</v>
+        <v>103.3664627075195</v>
       </c>
     </row>
     <row r="19">
@@ -1049,16 +1049,16 @@
         <v>25.92967709475499</v>
       </c>
       <c r="G19" t="n">
-        <v>515.41357421875</v>
+        <v>496.01806640625</v>
       </c>
       <c r="H19" t="n">
-        <v>119.4975128173828</v>
+        <v>72.62766265869141</v>
       </c>
       <c r="I19" t="n">
-        <v>577.3577270507812</v>
+        <v>929.154052734375</v>
       </c>
       <c r="J19" t="n">
-        <v>192.1396484375</v>
+        <v>106.2033386230469</v>
       </c>
     </row>
     <row r="20">
@@ -1081,16 +1081,16 @@
         <v>26.19588155013293</v>
       </c>
       <c r="G20" t="n">
-        <v>589.1509399414062</v>
+        <v>569.7214965820312</v>
       </c>
       <c r="H20" t="n">
-        <v>114.790885925293</v>
+        <v>58.26572036743164</v>
       </c>
       <c r="I20" t="n">
-        <v>586.7664184570312</v>
+        <v>910.490966796875</v>
       </c>
       <c r="J20" t="n">
-        <v>198.9859924316406</v>
+        <v>115.1627197265625</v>
       </c>
     </row>
     <row r="21">
@@ -1113,16 +1113,16 @@
         <v>25.87267490890685</v>
       </c>
       <c r="G21" t="n">
-        <v>671.6886596679688</v>
+        <v>641.1776733398438</v>
       </c>
       <c r="H21" t="n">
-        <v>114.8654174804688</v>
+        <v>52.03838348388672</v>
       </c>
       <c r="I21" t="n">
-        <v>555.5795288085938</v>
+        <v>895.4142456054688</v>
       </c>
       <c r="J21" t="n">
-        <v>208.57080078125</v>
+        <v>137.3704071044922</v>
       </c>
     </row>
     <row r="22">
@@ -1145,16 +1145,16 @@
         <v>24.64055238634836</v>
       </c>
       <c r="G22" t="n">
-        <v>722.5076293945312</v>
+        <v>686.4031372070312</v>
       </c>
       <c r="H22" t="n">
-        <v>107.8716201782227</v>
+        <v>54.76643371582031</v>
       </c>
       <c r="I22" t="n">
-        <v>551.1447143554688</v>
+        <v>846.6069946289062</v>
       </c>
       <c r="J22" t="n">
-        <v>216.0817565917969</v>
+        <v>146.9091491699219</v>
       </c>
     </row>
     <row r="23">
@@ -1177,16 +1177,16 @@
         <v>24.69862396067251</v>
       </c>
       <c r="G23" t="n">
-        <v>267.8533630371094</v>
+        <v>365.7110290527344</v>
       </c>
       <c r="H23" t="n">
-        <v>94.25355529785156</v>
+        <v>68.772705078125</v>
       </c>
       <c r="I23" t="n">
-        <v>360.8072814941406</v>
+        <v>299.9754028320312</v>
       </c>
       <c r="J23" t="n">
-        <v>229.0791320800781</v>
+        <v>81.93457794189453</v>
       </c>
     </row>
     <row r="24">
@@ -1209,16 +1209,16 @@
         <v>27.11629087610016</v>
       </c>
       <c r="G24" t="n">
-        <v>279.8839721679688</v>
+        <v>373.4714965820312</v>
       </c>
       <c r="H24" t="n">
-        <v>95.36911010742188</v>
+        <v>65.09364318847656</v>
       </c>
       <c r="I24" t="n">
-        <v>376.1911315917969</v>
+        <v>388.1448059082031</v>
       </c>
       <c r="J24" t="n">
-        <v>213.678466796875</v>
+        <v>76.19255065917969</v>
       </c>
     </row>
     <row r="25">
@@ -1241,16 +1241,16 @@
         <v>28.97995691733995</v>
       </c>
       <c r="G25" t="n">
-        <v>307.9103698730469</v>
+        <v>366.0258178710938</v>
       </c>
       <c r="H25" t="n">
-        <v>93.38278198242188</v>
+        <v>58.6256217956543</v>
       </c>
       <c r="I25" t="n">
-        <v>412.97509765625</v>
+        <v>529.8313598632812</v>
       </c>
       <c r="J25" t="n">
-        <v>202.2239074707031</v>
+        <v>89.05709075927734</v>
       </c>
     </row>
     <row r="26">
@@ -1273,16 +1273,16 @@
         <v>30.34265377319738</v>
       </c>
       <c r="G26" t="n">
-        <v>341.0065307617188</v>
+        <v>357.9179382324219</v>
       </c>
       <c r="H26" t="n">
-        <v>95.37975311279297</v>
+        <v>48.69377136230469</v>
       </c>
       <c r="I26" t="n">
-        <v>458.1067810058594</v>
+        <v>667.1339721679688</v>
       </c>
       <c r="J26" t="n">
-        <v>187.5890808105469</v>
+        <v>118.5019760131836</v>
       </c>
     </row>
     <row r="27">
@@ -1305,16 +1305,16 @@
         <v>31.86528713449996</v>
       </c>
       <c r="G27" t="n">
-        <v>390.4298095703125</v>
+        <v>384.0696105957031</v>
       </c>
       <c r="H27" t="n">
-        <v>101.5137023925781</v>
+        <v>55.56151580810547</v>
       </c>
       <c r="I27" t="n">
-        <v>491.7157287597656</v>
+        <v>793.2882080078125</v>
       </c>
       <c r="J27" t="n">
-        <v>182.5085296630859</v>
+        <v>111.5983505249023</v>
       </c>
     </row>
     <row r="28">
@@ -1337,16 +1337,16 @@
         <v>31.70139237157215</v>
       </c>
       <c r="G28" t="n">
-        <v>481.2205200195312</v>
+        <v>459.6939086914062</v>
       </c>
       <c r="H28" t="n">
-        <v>108.3531494140625</v>
+        <v>66.00392150878906</v>
       </c>
       <c r="I28" t="n">
-        <v>523.19580078125</v>
+        <v>895.1845703125</v>
       </c>
       <c r="J28" t="n">
-        <v>188.8855590820312</v>
+        <v>114.5561981201172</v>
       </c>
     </row>
     <row r="29">
@@ -1369,16 +1369,16 @@
         <v>31.7420363140709</v>
       </c>
       <c r="G29" t="n">
-        <v>565.80078125</v>
+        <v>538.8397827148438</v>
       </c>
       <c r="H29" t="n">
-        <v>108.4008102416992</v>
+        <v>61.81045532226562</v>
       </c>
       <c r="I29" t="n">
-        <v>537.7529907226562</v>
+        <v>921.2054443359375</v>
       </c>
       <c r="J29" t="n">
-        <v>196.1085815429688</v>
+        <v>128.0345153808594</v>
       </c>
     </row>
     <row r="30">
@@ -1401,16 +1401,16 @@
         <v>30.76237588603813</v>
       </c>
       <c r="G30" t="n">
-        <v>656.8382568359375</v>
+        <v>619.7393798828125</v>
       </c>
       <c r="H30" t="n">
-        <v>105.610107421875</v>
+        <v>53.4647216796875</v>
       </c>
       <c r="I30" t="n">
-        <v>526.2216796875</v>
+        <v>907.6251220703125</v>
       </c>
       <c r="J30" t="n">
-        <v>201.7446899414062</v>
+        <v>146.7808380126953</v>
       </c>
     </row>
     <row r="31">
@@ -1433,16 +1433,16 @@
         <v>29.73442789455431</v>
       </c>
       <c r="G31" t="n">
-        <v>708.2373046875</v>
+        <v>669.4664306640625</v>
       </c>
       <c r="H31" t="n">
-        <v>105.9622268676758</v>
+        <v>54.20240020751953</v>
       </c>
       <c r="I31" t="n">
-        <v>513.7923583984375</v>
+        <v>862.7526245117188</v>
       </c>
       <c r="J31" t="n">
-        <v>209.4862518310547</v>
+        <v>165.2159423828125</v>
       </c>
     </row>
     <row r="32">
@@ -1465,16 +1465,16 @@
         <v>30.37782838567884</v>
       </c>
       <c r="G32" t="n">
-        <v>261.9370422363281</v>
+        <v>362.7201843261719</v>
       </c>
       <c r="H32" t="n">
-        <v>93.37670135498047</v>
+        <v>66.55281066894531</v>
       </c>
       <c r="I32" t="n">
-        <v>325.4608154296875</v>
+        <v>197.0305633544922</v>
       </c>
       <c r="J32" t="n">
-        <v>231.5220794677734</v>
+        <v>112.9383697509766</v>
       </c>
     </row>
     <row r="33">
@@ -1497,16 +1497,16 @@
         <v>33.11659379389907</v>
       </c>
       <c r="G33" t="n">
-        <v>275.6199340820312</v>
+        <v>375.9331970214844</v>
       </c>
       <c r="H33" t="n">
-        <v>91.74794769287109</v>
+        <v>64.80782318115234</v>
       </c>
       <c r="I33" t="n">
-        <v>338.22265625</v>
+        <v>298.3190612792969</v>
       </c>
       <c r="J33" t="n">
-        <v>218.2034912109375</v>
+        <v>101.3394165039062</v>
       </c>
     </row>
     <row r="34">
@@ -1529,16 +1529,16 @@
         <v>35.40504769440309</v>
       </c>
       <c r="G34" t="n">
-        <v>301.9104309082031</v>
+        <v>381.2213134765625</v>
       </c>
       <c r="H34" t="n">
-        <v>95.27513122558594</v>
+        <v>60.99404144287109</v>
       </c>
       <c r="I34" t="n">
-        <v>363.9981689453125</v>
+        <v>394.2369384765625</v>
       </c>
       <c r="J34" t="n">
-        <v>204.8428192138672</v>
+        <v>102.021614074707</v>
       </c>
     </row>
     <row r="35">
@@ -1561,16 +1561,16 @@
         <v>37.57764389518124</v>
       </c>
       <c r="G35" t="n">
-        <v>330.1574096679688</v>
+        <v>387.5372924804688</v>
       </c>
       <c r="H35" t="n">
-        <v>95.71574401855469</v>
+        <v>53.48992538452148</v>
       </c>
       <c r="I35" t="n">
-        <v>381.6863403320312</v>
+        <v>482.5559997558594</v>
       </c>
       <c r="J35" t="n">
-        <v>196.0791473388672</v>
+        <v>123.7430267333984</v>
       </c>
     </row>
     <row r="36">
@@ -1593,16 +1593,16 @@
         <v>38.09115608907656</v>
       </c>
       <c r="G36" t="n">
-        <v>385.2888793945312</v>
+        <v>408.4062805175781</v>
       </c>
       <c r="H36" t="n">
-        <v>98.73738098144531</v>
+        <v>59.30698013305664</v>
       </c>
       <c r="I36" t="n">
-        <v>422.6357421875</v>
+        <v>620.6859130859375</v>
       </c>
       <c r="J36" t="n">
-        <v>182.0061340332031</v>
+        <v>119.6665802001953</v>
       </c>
     </row>
     <row r="37">
@@ -1625,16 +1625,16 @@
         <v>38.33579750611559</v>
       </c>
       <c r="G37" t="n">
-        <v>455.6986999511719</v>
+        <v>450.3143615722656</v>
       </c>
       <c r="H37" t="n">
-        <v>111.3921127319336</v>
+        <v>67.02632141113281</v>
       </c>
       <c r="I37" t="n">
-        <v>456.3873901367188</v>
+        <v>721.260986328125</v>
       </c>
       <c r="J37" t="n">
-        <v>183.0863800048828</v>
+        <v>117.3204040527344</v>
       </c>
     </row>
     <row r="38">
@@ -1657,16 +1657,16 @@
         <v>37.89528654115976</v>
       </c>
       <c r="G38" t="n">
-        <v>555.0931396484375</v>
+        <v>530.9987182617188</v>
       </c>
       <c r="H38" t="n">
-        <v>106.3037796020508</v>
+        <v>58.45471572875977</v>
       </c>
       <c r="I38" t="n">
-        <v>485.0218811035156</v>
+        <v>838.2676391601562</v>
       </c>
       <c r="J38" t="n">
-        <v>193.2067565917969</v>
+        <v>123.2095031738281</v>
       </c>
     </row>
     <row r="39">
@@ -1689,16 +1689,16 @@
         <v>37.04916938976096</v>
       </c>
       <c r="G39" t="n">
-        <v>625.7391357421875</v>
+        <v>600.9131469726562</v>
       </c>
       <c r="H39" t="n">
-        <v>105.8114852905273</v>
+        <v>55.30522537231445</v>
       </c>
       <c r="I39" t="n">
-        <v>478.6423034667969</v>
+        <v>884.2766723632812</v>
       </c>
       <c r="J39" t="n">
-        <v>180.9937286376953</v>
+        <v>144.5423431396484</v>
       </c>
     </row>
     <row r="40">
@@ -1721,16 +1721,16 @@
         <v>35.00856026880581</v>
       </c>
       <c r="G40" t="n">
-        <v>697.828125</v>
+        <v>656.1015014648438</v>
       </c>
       <c r="H40" t="n">
-        <v>107.7915496826172</v>
+        <v>52.74419021606445</v>
       </c>
       <c r="I40" t="n">
-        <v>465.6840515136719</v>
+        <v>849.5236206054688</v>
       </c>
       <c r="J40" t="n">
-        <v>198.9330291748047</v>
+        <v>179.1669006347656</v>
       </c>
     </row>
     <row r="41">
@@ -1753,16 +1753,16 @@
         <v>37.58863922492247</v>
       </c>
       <c r="G41" t="n">
-        <v>259.4299926757812</v>
+        <v>369.8259582519531</v>
       </c>
       <c r="H41" t="n">
-        <v>91.30384063720703</v>
+        <v>66.45908355712891</v>
       </c>
       <c r="I41" t="n">
-        <v>281.990478515625</v>
+        <v>124.0369644165039</v>
       </c>
       <c r="J41" t="n">
-        <v>240.0565032958984</v>
+        <v>140.1904602050781</v>
       </c>
     </row>
     <row r="42">
@@ -1785,16 +1785,16 @@
         <v>40.4685427958547</v>
       </c>
       <c r="G42" t="n">
-        <v>272.4295043945312</v>
+        <v>382.506591796875</v>
       </c>
       <c r="H42" t="n">
-        <v>91.30656433105469</v>
+        <v>64.47316741943359</v>
       </c>
       <c r="I42" t="n">
-        <v>281.9500427246094</v>
+        <v>193.7927398681641</v>
       </c>
       <c r="J42" t="n">
-        <v>217.9774627685547</v>
+        <v>133.6234741210938</v>
       </c>
     </row>
     <row r="43">
@@ -1817,16 +1817,16 @@
         <v>42.41365999634309</v>
       </c>
       <c r="G43" t="n">
-        <v>285.55322265625</v>
+        <v>393.6341552734375</v>
       </c>
       <c r="H43" t="n">
-        <v>87.06456756591797</v>
+        <v>62.66696929931641</v>
       </c>
       <c r="I43" t="n">
-        <v>299.9711303710938</v>
+        <v>260.385498046875</v>
       </c>
       <c r="J43" t="n">
-        <v>210.2478485107422</v>
+        <v>124.7393264770508</v>
       </c>
     </row>
     <row r="44">
@@ -1849,16 +1849,16 @@
         <v>44.05056700894834</v>
       </c>
       <c r="G44" t="n">
-        <v>329.6344604492188</v>
+        <v>406.5231018066406</v>
       </c>
       <c r="H44" t="n">
-        <v>93.78254699707031</v>
+        <v>55.61463928222656</v>
       </c>
       <c r="I44" t="n">
-        <v>336.4434814453125</v>
+        <v>374.1716613769531</v>
       </c>
       <c r="J44" t="n">
-        <v>196.4562072753906</v>
+        <v>147.1638488769531</v>
       </c>
     </row>
     <row r="45">
@@ -1881,16 +1881,16 @@
         <v>45.28527361475503</v>
       </c>
       <c r="G45" t="n">
-        <v>359.6763305664062</v>
+        <v>420.4591979980469</v>
       </c>
       <c r="H45" t="n">
-        <v>95.08602142333984</v>
+        <v>53.53488159179688</v>
       </c>
       <c r="I45" t="n">
-        <v>344.1428527832031</v>
+        <v>442.6496887207031</v>
       </c>
       <c r="J45" t="n">
-        <v>186.1094970703125</v>
+        <v>148.1150360107422</v>
       </c>
     </row>
     <row r="46">
@@ -1913,16 +1913,16 @@
         <v>45.11415223222625</v>
       </c>
       <c r="G46" t="n">
-        <v>426.1794738769531</v>
+        <v>460.6627502441406</v>
       </c>
       <c r="H46" t="n">
-        <v>103.7552032470703</v>
+        <v>61.67629623413086</v>
       </c>
       <c r="I46" t="n">
-        <v>394.7275085449219</v>
+        <v>543.4676513671875</v>
       </c>
       <c r="J46" t="n">
-        <v>178.7165069580078</v>
+        <v>139.5698089599609</v>
       </c>
     </row>
     <row r="47">
@@ -1945,16 +1945,16 @@
         <v>44.97584185956661</v>
       </c>
       <c r="G47" t="n">
-        <v>520.5260009765625</v>
+        <v>531.260986328125</v>
       </c>
       <c r="H47" t="n">
-        <v>103.9201431274414</v>
+        <v>51.76019287109375</v>
       </c>
       <c r="I47" t="n">
-        <v>412.9227600097656</v>
+        <v>668.033935546875</v>
       </c>
       <c r="J47" t="n">
-        <v>182.0455474853516</v>
+        <v>114.5119323730469</v>
       </c>
     </row>
     <row r="48">
@@ -1977,16 +1977,16 @@
         <v>42.0865253634753</v>
       </c>
       <c r="G48" t="n">
-        <v>615.0068969726562</v>
+        <v>596.6455688476562</v>
       </c>
       <c r="H48" t="n">
-        <v>101.9294891357422</v>
+        <v>51.37482833862305</v>
       </c>
       <c r="I48" t="n">
-        <v>442.4462890625</v>
+        <v>800.5743408203125</v>
       </c>
       <c r="J48" t="n">
-        <v>186.7804870605469</v>
+        <v>138.4221496582031</v>
       </c>
     </row>
     <row r="49">
@@ -2009,16 +2009,16 @@
         <v>40.81585186348995</v>
       </c>
       <c r="G49" t="n">
-        <v>674.7489624023438</v>
+        <v>643.5017700195312</v>
       </c>
       <c r="H49" t="n">
-        <v>106.2864151000977</v>
+        <v>54.01095199584961</v>
       </c>
       <c r="I49" t="n">
-        <v>435.9862976074219</v>
+        <v>830.147216796875</v>
       </c>
       <c r="J49" t="n">
-        <v>190.0246429443359</v>
+        <v>180.6786651611328</v>
       </c>
     </row>
     <row r="50">
@@ -2041,16 +2041,16 @@
         <v>45.37200448015243</v>
       </c>
       <c r="G50" t="n">
-        <v>263.0606384277344</v>
+        <v>379.81396484375</v>
       </c>
       <c r="H50" t="n">
-        <v>90.14926910400391</v>
+        <v>63.33218002319336</v>
       </c>
       <c r="I50" t="n">
-        <v>246.1817474365234</v>
+        <v>58.77281951904297</v>
       </c>
       <c r="J50" t="n">
-        <v>222.6465148925781</v>
+        <v>161.4003295898438</v>
       </c>
     </row>
     <row r="51">
@@ -2073,16 +2073,16 @@
         <v>48.78786662406539</v>
       </c>
       <c r="G51" t="n">
-        <v>282.1465454101562</v>
+        <v>396.2763671875</v>
       </c>
       <c r="H51" t="n">
-        <v>86.72012329101562</v>
+        <v>68.44229125976562</v>
       </c>
       <c r="I51" t="n">
-        <v>246.8300323486328</v>
+        <v>107.9004364013672</v>
       </c>
       <c r="J51" t="n">
-        <v>216.8179321289062</v>
+        <v>165.4981384277344</v>
       </c>
     </row>
     <row r="52">
@@ -2105,16 +2105,16 @@
         <v>50.73675625671652</v>
       </c>
       <c r="G52" t="n">
-        <v>296.5319519042969</v>
+        <v>406.9642333984375</v>
       </c>
       <c r="H52" t="n">
-        <v>87.25279235839844</v>
+        <v>64.76751708984375</v>
       </c>
       <c r="I52" t="n">
-        <v>250.7225189208984</v>
+        <v>161.1629028320312</v>
       </c>
       <c r="J52" t="n">
-        <v>211.0143127441406</v>
+        <v>157.7802124023438</v>
       </c>
     </row>
     <row r="53">
@@ -2137,16 +2137,16 @@
         <v>51.96609868449762</v>
       </c>
       <c r="G53" t="n">
-        <v>324.2274780273438</v>
+        <v>421.7162780761719</v>
       </c>
       <c r="H53" t="n">
-        <v>89.35686492919922</v>
+        <v>64.29904937744141</v>
       </c>
       <c r="I53" t="n">
-        <v>273.9175109863281</v>
+        <v>246.0008544921875</v>
       </c>
       <c r="J53" t="n">
-        <v>190.152587890625</v>
+        <v>162.2508697509766</v>
       </c>
     </row>
     <row r="54">
@@ -2169,16 +2169,16 @@
         <v>52.45736467440484</v>
       </c>
       <c r="G54" t="n">
-        <v>362.4329528808594</v>
+        <v>441.89990234375</v>
       </c>
       <c r="H54" t="n">
-        <v>89.64640045166016</v>
+        <v>56.93056869506836</v>
       </c>
       <c r="I54" t="n">
-        <v>283.5476989746094</v>
+        <v>330.2881774902344</v>
       </c>
       <c r="J54" t="n">
-        <v>179.4027099609375</v>
+        <v>170.5486297607422</v>
       </c>
     </row>
     <row r="55">
@@ -2201,16 +2201,16 @@
         <v>51.85220057025387</v>
       </c>
       <c r="G55" t="n">
-        <v>415.6624755859375</v>
+        <v>476.457763671875</v>
       </c>
       <c r="H55" t="n">
-        <v>93.17748260498047</v>
+        <v>55.30166625976562</v>
       </c>
       <c r="I55" t="n">
-        <v>321.4576416015625</v>
+        <v>424.9228210449219</v>
       </c>
       <c r="J55" t="n">
-        <v>177.4201507568359</v>
+        <v>179.3431549072266</v>
       </c>
     </row>
     <row r="56">
@@ -2233,16 +2233,16 @@
         <v>51.37276147532685</v>
       </c>
       <c r="G56" t="n">
-        <v>489.4051513671875</v>
+        <v>532.025634765625</v>
       </c>
       <c r="H56" t="n">
-        <v>105.9463806152344</v>
+        <v>51.16042327880859</v>
       </c>
       <c r="I56" t="n">
-        <v>357.2905578613281</v>
+        <v>517.9411010742188</v>
       </c>
       <c r="J56" t="n">
-        <v>180.8449401855469</v>
+        <v>153.5995635986328</v>
       </c>
     </row>
     <row r="57">
@@ -2265,16 +2265,16 @@
         <v>49.881475732815</v>
       </c>
       <c r="G57" t="n">
-        <v>574.6807250976562</v>
+        <v>583.336181640625</v>
       </c>
       <c r="H57" t="n">
-        <v>102.5815200805664</v>
+        <v>45.90981292724609</v>
       </c>
       <c r="I57" t="n">
-        <v>402.4976501464844</v>
+        <v>646.3062133789062</v>
       </c>
       <c r="J57" t="n">
-        <v>170.5974731445312</v>
+        <v>124.0614624023438</v>
       </c>
     </row>
     <row r="58">
@@ -2297,16 +2297,16 @@
         <v>46.147295090649</v>
       </c>
       <c r="G58" t="n">
-        <v>660.169921875</v>
+        <v>641.6729125976562</v>
       </c>
       <c r="H58" t="n">
-        <v>102.9272232055664</v>
+        <v>52.56307983398438</v>
       </c>
       <c r="I58" t="n">
-        <v>413.9315795898438</v>
+        <v>769.5431518554688</v>
       </c>
       <c r="J58" t="n">
-        <v>176.6847381591797</v>
+        <v>175.2106170654297</v>
       </c>
     </row>
     <row r="59">
@@ -2329,16 +2329,16 @@
         <v>56.70921047332411</v>
       </c>
       <c r="G59" t="n">
-        <v>290.35791015625</v>
+        <v>401.5632934570312</v>
       </c>
       <c r="H59" t="n">
-        <v>86.17678833007812</v>
+        <v>64.20575714111328</v>
       </c>
       <c r="I59" t="n">
-        <v>210.0402069091797</v>
+        <v>-4.551621913909912</v>
       </c>
       <c r="J59" t="n">
-        <v>211.9643707275391</v>
+        <v>188.2387542724609</v>
       </c>
     </row>
     <row r="60">
@@ -2361,16 +2361,16 @@
         <v>58.23723423416003</v>
       </c>
       <c r="G60" t="n">
-        <v>310.8835144042969</v>
+        <v>414.7786254882812</v>
       </c>
       <c r="H60" t="n">
-        <v>85.18118286132812</v>
+        <v>69.26847076416016</v>
       </c>
       <c r="I60" t="n">
-        <v>222.2720794677734</v>
+        <v>46.66390228271484</v>
       </c>
       <c r="J60" t="n">
-        <v>198.2246246337891</v>
+        <v>203.9048004150391</v>
       </c>
     </row>
     <row r="61">
@@ -2393,16 +2393,16 @@
         <v>59.34611390594659</v>
       </c>
       <c r="G61" t="n">
-        <v>326.2845458984375</v>
+        <v>432.4822692871094</v>
       </c>
       <c r="H61" t="n">
-        <v>83.18860626220703</v>
+        <v>67.92438507080078</v>
       </c>
       <c r="I61" t="n">
-        <v>242.5089569091797</v>
+        <v>122.7222290039062</v>
       </c>
       <c r="J61" t="n">
-        <v>193.0010681152344</v>
+        <v>182.3054962158203</v>
       </c>
     </row>
     <row r="62">
@@ -2425,16 +2425,16 @@
         <v>59.33493295870724</v>
       </c>
       <c r="G62" t="n">
-        <v>355.0660095214844</v>
+        <v>452.0490112304688</v>
       </c>
       <c r="H62" t="n">
-        <v>86.4095458984375</v>
+        <v>63.94911193847656</v>
       </c>
       <c r="I62" t="n">
-        <v>252.2597351074219</v>
+        <v>201.7015838623047</v>
       </c>
       <c r="J62" t="n">
-        <v>177.4840240478516</v>
+        <v>184.3765411376953</v>
       </c>
     </row>
     <row r="63">
@@ -2457,16 +2457,16 @@
         <v>58.39353789451046</v>
       </c>
       <c r="G63" t="n">
-        <v>399.5152893066406</v>
+        <v>481.3425903320312</v>
       </c>
       <c r="H63" t="n">
-        <v>92.24172973632812</v>
+        <v>56.23233795166016</v>
       </c>
       <c r="I63" t="n">
-        <v>271.6495971679688</v>
+        <v>292.1953735351562</v>
       </c>
       <c r="J63" t="n">
-        <v>170.301513671875</v>
+        <v>193.6767272949219</v>
       </c>
     </row>
     <row r="64">
@@ -2489,16 +2489,16 @@
         <v>57.3323684814925</v>
       </c>
       <c r="G64" t="n">
-        <v>472.1079711914062</v>
+        <v>534.4942626953125</v>
       </c>
       <c r="H64" t="n">
-        <v>99.56373596191406</v>
+        <v>51.0380744934082</v>
       </c>
       <c r="I64" t="n">
-        <v>316.6778869628906</v>
+        <v>407.3434448242188</v>
       </c>
       <c r="J64" t="n">
-        <v>166.9127960205078</v>
+        <v>180.7183227539062</v>
       </c>
     </row>
     <row r="65">
@@ -2521,16 +2521,16 @@
         <v>54.83283250514894</v>
       </c>
       <c r="G65" t="n">
-        <v>561.6714477539062</v>
+        <v>589.0009155273438</v>
       </c>
       <c r="H65" t="n">
-        <v>103.1704940795898</v>
+        <v>44.66983795166016</v>
       </c>
       <c r="I65" t="n">
-        <v>372.6212158203125</v>
+        <v>548.8037719726562</v>
       </c>
       <c r="J65" t="n">
-        <v>179.8940124511719</v>
+        <v>137.3122253417969</v>
       </c>
     </row>
     <row r="66">
@@ -2553,16 +2553,16 @@
         <v>66.18771861830042</v>
       </c>
       <c r="G66" t="n">
-        <v>322.8532409667969</v>
+        <v>425.4964904785156</v>
       </c>
       <c r="H66" t="n">
-        <v>84.16522979736328</v>
+        <v>65.47832489013672</v>
       </c>
       <c r="I66" t="n">
-        <v>181.5000762939453</v>
+        <v>-37.72663116455078</v>
       </c>
       <c r="J66" t="n">
-        <v>208.4076690673828</v>
+        <v>216.6268310546875</v>
       </c>
     </row>
     <row r="67">
@@ -2585,16 +2585,16 @@
         <v>66.85471859160208</v>
       </c>
       <c r="G67" t="n">
-        <v>338.7508239746094</v>
+        <v>438.6930236816406</v>
       </c>
       <c r="H67" t="n">
-        <v>89.15900421142578</v>
+        <v>67.61227416992188</v>
       </c>
       <c r="I67" t="n">
-        <v>189.6697692871094</v>
+        <v>8.474337577819824</v>
       </c>
       <c r="J67" t="n">
-        <v>202.214599609375</v>
+        <v>218.1208648681641</v>
       </c>
     </row>
     <row r="68">
@@ -2617,16 +2617,16 @@
         <v>66.29608309198557</v>
       </c>
       <c r="G68" t="n">
-        <v>370.0233154296875</v>
+        <v>470.8775634765625</v>
       </c>
       <c r="H68" t="n">
-        <v>93.73709106445312</v>
+        <v>60.18494415283203</v>
       </c>
       <c r="I68" t="n">
-        <v>222.8955230712891</v>
+        <v>123.853141784668</v>
       </c>
       <c r="J68" t="n">
-        <v>185.1240997314453</v>
+        <v>209.8666381835938</v>
       </c>
     </row>
     <row r="69">
@@ -2649,16 +2649,16 @@
         <v>65.32452373485688</v>
       </c>
       <c r="G69" t="n">
-        <v>398.5864562988281</v>
+        <v>491.7554626464844</v>
       </c>
       <c r="H69" t="n">
-        <v>97.07742309570312</v>
+        <v>52.91682434082031</v>
       </c>
       <c r="I69" t="n">
-        <v>243.9969024658203</v>
+        <v>204.7115020751953</v>
       </c>
       <c r="J69" t="n">
-        <v>174.8872375488281</v>
+        <v>198.7710113525391</v>
       </c>
     </row>
     <row r="70">
@@ -2681,16 +2681,16 @@
         <v>63.37031159981304</v>
       </c>
       <c r="G70" t="n">
-        <v>455.0201416015625</v>
+        <v>536.2810668945312</v>
       </c>
       <c r="H70" t="n">
-        <v>103.116584777832</v>
+        <v>45.50423431396484</v>
       </c>
       <c r="I70" t="n">
-        <v>287.8157348632812</v>
+        <v>330.0702209472656</v>
       </c>
       <c r="J70" t="n">
-        <v>163.0938568115234</v>
+        <v>197.4258270263672</v>
       </c>
     </row>
   </sheetData>
